--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1408220.729388423</v>
+        <v>-1410777.045215674</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>100.4028078304875</v>
+        <v>156.2243250699803</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.86847813395533</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>30.21666592876847</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.7219094516612</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1842533629211</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>141.4558507036725</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>144.1406215660496</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>142.3478174606666</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>111.0683256684606</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>83.25383314671824</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>18.53989561617406</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.1185786361443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>54.6363756889358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>36.22494343870298</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>255.4454628329759</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>121.8674042714177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>252.7992192086112</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.7521146501823</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U28" t="n">
-        <v>83.53432244437134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943748</v>
+        <v>936.9705155339554</v>
       </c>
       <c r="E2" t="n">
-        <v>922.582043345504</v>
+        <v>936.9705155339554</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064547</v>
@@ -4413,46 +4413,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410.6772566376943</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6772566376943</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>391.8370422890207</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>243.9239487066276</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>97.03400120871723</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>97.03400120871723</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812244</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X4" t="n">
-        <v>631.4698357812244</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.6772566376943</v>
+        <v>541.9536817013565</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1771.429619686768</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1402.467102746356</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1044.201404139606</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>658.4131515413612</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>247.4272467517537</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3952006371542</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261502</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>440.098254770655</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302008</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302008</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855439</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459945</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477503</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985468</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839474</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2643.616700846384</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2290.848045576269</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,19 +4878,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>445.4099384687679</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962294</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757138</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025402</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>620.6434971134755</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>331.5406302391191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>331.5406302391191</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>331.5406302391191</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X10" t="n">
-        <v>331.5406302391191</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.5406302391191</v>
+        <v>445.4099384687679</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,16 +5130,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704553</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
         <v>929.7309773356194</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.513107377167</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.523556479149</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2410.372231621975</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2190.770766644916</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.695539989114</v>
+        <v>1902.290194822295</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>614.6217844681063</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1789.154037582741</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V22" t="n">
-        <v>1534.469549376854</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W22" t="n">
-        <v>1245.052379339893</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.062828441876</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y22" t="n">
-        <v>796.270249298346</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.550723916711</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469508</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,22 +7099,22 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,19 +7807,19 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>306.473237911224</v>
+        <v>250.6517206717311</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>62.9194818005699</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>99.74699488425702</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>114.5383489855523</v>
       </c>
       <c r="I4" t="n">
-        <v>92.20568423526589</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.4660747159505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>111.7546635373309</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>231.8866226476552</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>144.8013425629416</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>30.73901155626828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>33.38525518063295</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U28" t="n">
-        <v>202.6501519448728</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380013</v>
@@ -26329,22 +26329,22 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691496</v>
+        <v>11387.33216691498</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="H4" t="n">
-        <v>14826.69604186734</v>
-      </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496076</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="N4" t="n">
         <v>22817.55530496082</v>
       </c>
       <c r="O4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312664.305740444</v>
+        <v>-1313024.388756161</v>
       </c>
       <c r="C6" t="n">
         <v>-37322.33069258917</v>
       </c>
       <c r="D6" t="n">
-        <v>-37322.33069258909</v>
+        <v>-37322.33069258917</v>
       </c>
       <c r="E6" t="n">
-        <v>-279932.3677351279</v>
+        <v>-279967.1056605643</v>
       </c>
       <c r="F6" t="n">
-        <v>45480.09407222678</v>
+        <v>45445.35614679108</v>
       </c>
       <c r="G6" t="n">
-        <v>45480.09407222671</v>
+        <v>45445.35614679105</v>
       </c>
       <c r="H6" t="n">
-        <v>45480.0940722268</v>
+        <v>45445.35614679105</v>
       </c>
       <c r="I6" t="n">
-        <v>45480.09407222677</v>
+        <v>45445.35614679102</v>
       </c>
       <c r="J6" t="n">
-        <v>-172051.1083250507</v>
+        <v>-172085.8462504866</v>
       </c>
       <c r="K6" t="n">
-        <v>45480.09407222678</v>
+        <v>45445.35614679096</v>
       </c>
       <c r="L6" t="n">
-        <v>18798.96482034885</v>
+        <v>18798.96482034879</v>
       </c>
       <c r="M6" t="n">
-        <v>-46828.34512153105</v>
+        <v>-46828.34512153146</v>
       </c>
       <c r="N6" t="n">
-        <v>38226.68281398062</v>
+        <v>38226.68281398059</v>
       </c>
       <c r="O6" t="n">
-        <v>38226.68281398062</v>
+        <v>38226.68281398059</v>
       </c>
       <c r="P6" t="n">
-        <v>38226.68281398062</v>
+        <v>38226.6828139805</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>116.9124983813674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.146736174572197</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.0119322118194</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>126.4235110243994</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>38.37612947826483</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>107.9970217577784</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>222.9250743103409</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>216.6839328016743</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>83.9929879519096</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>201.0090536599951</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837908</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004575</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
